--- a/data/taxon genera files/Z genera reduced.xlsx
+++ b/data/taxon genera files/Z genera reduced.xlsx
@@ -16,7 +16,696 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="386">
+  <si>
+    <t>ZAKLINSKAIEPOLLENITES</t>
+  </si>
+  <si>
+    <t>ZINJISPORA</t>
+  </si>
+  <si>
+    <t>ZONALES-SPORITES</t>
+  </si>
+  <si>
+    <t>ZONOOIDIUM</t>
+  </si>
+  <si>
+    <t>ZONOSPHAERIDIUM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZHONGUANDINIUM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zhu, He &amp; Jin, in He, Zhu &amp; Jin, 1989; p. 71-72.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZAIREACOLPITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kar &amp; Bose 1976; p. 78.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZAKLINSKIANA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bliakhova 1974; p. 116, 125.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZEBRASPORITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Klaus 1960; p. 137.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZEILLERISPORITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pant &amp; Srivastava 1964; p. 81.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZELKOVAEPOLLENITES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Nagy 1969; p. 456.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZERNDTISPORITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bhardwaj 1956; p. 130.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZHONGUAPOLLIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yu, Zhang &amp; Zhou 1985; p. 532, 537.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZIRCIPOLLENITES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kedves 1974; p. 27.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZOLLERELLA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scheuring 1980; p. 90.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONACRINOPOLLIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cornet 1989; p. 64.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONALAPLICITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Saad &amp; Ghazaly 1976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZONALAPOLLENITES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pflug, in Thomson &amp; Pflug, 1953; p. 66.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZONALASPORITES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ibrahim 1933; p. 37.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Several authors render the generic name as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zonalesporites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, which is regarded as a variant spelling.&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONALESSPORITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thiergart 1954; p. 549.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Jansonius &amp; Hills (1976; card 3270) discuss the confusing systematic issues regarding this genus, which appears to be a junior homonym of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zonales-sporites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZONALETES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Luber &amp; Waltz 1938; p. 33.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZONALETES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Staplin 1960; p. 6.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>non Zonaletes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Luber &amp; Waltz 1938</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">non Zonaletes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staplin 1960</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZONALOSPORITES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ibrahim 1933; p. 40.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONARETICULATISPORIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kar 1969; p. 13.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONOCORONASPORA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jachowicz 1967; p. 100.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONOCOSTITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Germeraad, Hopping &amp; Muller 1968; p. 332.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONOLAGENICULA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Piérart 1978; p. 372.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONOMONOLETES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Naumova ex Bolkhovitina 1953; 58.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Although no type species has been designated, according to Jansonius &amp; Hills (card3278) the genus is valid.&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONORAPOLLIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Li, Sung &amp; Li 1978; p. 30.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONOSTRIATITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kar 1969; p. 92.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONOSULCITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Erdtman ex Srivastava 1969d; p. 980.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZONOTRILETES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Luber &amp; Waltz 1938; p. 13.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZOSTEROSPHAERA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Schopf 1968; p. 684.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZOSTEROSPORITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kosanke 1973' p. 10.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZVOLENYPOLLIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Planderová 1966; p. 62, 86.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zvolenypollis rugulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Planderová 1966 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZLIVISPORIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pacltová 1961; p. 40; see </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Triporoletes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Braman (2001) argued cogently that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Zlivisporis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">be separated from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Triporoletes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, on the basis of the morphology of the genotypes. Numerous species require re-evaluation if this view is appropriate.&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Z GENERA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zlivisporis bireticulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Liu 1981</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zlivisporis pliocaenicus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch 1967</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zonocostites equatorialis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Silva-Caminha, Jaramillo &amp; Absy 2010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zaireacolpites circulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kar &amp; Bose 1976 (T)</t>
+    </r>
+  </si>
   <si>
     <r>
       <t>Zaklinskaiepollenites concaviformis</t>
@@ -24,7 +713,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -33,12 +721,24 @@
   </si>
   <si>
     <r>
+      <t>Zaklinskiana plicata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bliakhova 1974 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zebrasporites corneolus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -52,7 +752,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -61,12 +760,24 @@
   </si>
   <si>
     <r>
+      <t>Zebrasporites kahleri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Klaus 1960 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zebrasporites laevigatus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -80,7 +791,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -94,7 +804,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -103,12 +812,24 @@
   </si>
   <si>
     <r>
+      <t>Zeillerisporites sahnii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Sitholey) Pant &amp; Srivastava 1964 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zeillerisporites sitholeyi</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -117,12 +838,24 @@
   </si>
   <si>
     <r>
+      <t>Zelkovaepollenites potoniei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Nagy 1969 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zelkovaepollenites taiwanensis</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -136,7 +869,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -145,12 +877,37 @@
   </si>
   <si>
     <r>
+      <t>Zerndtisporites laxomarginalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Zerndt) Bhardwaj 1956 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zhonghuapollis projectus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Yu, Zhang &amp; Zhou 1985 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zhongyuandinium biconicum</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -164,7 +921,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -173,12 +929,24 @@
   </si>
   <si>
     <r>
+      <t>Zhongyuandinium decorosum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Zhu, He &amp; Jin, in He, Zhu &amp; Jin, 1989 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zhongyuandinium elongatum</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -188,7 +956,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -197,7 +964,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -211,7 +977,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -221,7 +986,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -230,7 +994,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -244,7 +1007,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -258,7 +1020,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -272,7 +1033,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -286,7 +1046,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -300,7 +1059,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -310,7 +1068,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -319,7 +1076,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -333,7 +1089,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -343,7 +1098,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -357,7 +1111,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -371,7 +1124,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -385,7 +1137,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -399,7 +1150,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -408,12 +1158,63 @@
   </si>
   <si>
     <r>
+      <t>Zircipollenites globosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kedves 1974 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zlivisporis attenuatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Zhang &amp; Zhan 1991</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zlivisporis blanensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pacltová 1961 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zlivisporis cenomanianus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Agasie) Braman 2001</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zlivisporis dorogensis</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -427,7 +1228,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -441,7 +1241,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -450,12 +1249,24 @@
   </si>
   <si>
     <r>
+      <t>Zlivisporis magnus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Rákosi 1973</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zlivisporis major</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -469,7 +1280,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -483,7 +1293,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -493,7 +1302,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -502,7 +1310,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -516,7 +1323,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -525,12 +1331,24 @@
   </si>
   <si>
     <r>
+      <t>Zlivisporis palaeogenicus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Krutzsch &amp; Vanhoorne 1977</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zlivisporis pluricellulus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -544,7 +1362,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -558,7 +1375,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -567,12 +1383,24 @@
   </si>
   <si>
     <r>
+      <t>Zlivisporis simplex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Cookson &amp; Dettmann) Braman 2001</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zlivisporis transdanubicus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -586,7 +1414,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -595,12 +1422,63 @@
   </si>
   <si>
     <r>
+      <t>Zlivisporis triocularis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Venkatachala &amp; Sharma 1974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zlivisporis unioreticulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Zhang &amp; Zhan 1991</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zollerella tricolpata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Scheuring 1978 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zonacrinopollis anasulcatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cornet 1989 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Zonalaplicites aegyptiaca </t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -614,7 +1492,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -628,7 +1505,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -642,7 +1518,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -656,7 +1531,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -670,7 +1544,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -684,7 +1557,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -698,7 +1570,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -707,12 +1578,41 @@
   </si>
   <si>
     <r>
+      <t>Zonalapollenites igniculus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Potonié </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pflug, in Thomson &amp; Pflug, 1953 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonalapollenites koreanus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -726,7 +1626,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -740,7 +1639,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -754,7 +1652,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -768,7 +1665,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -782,7 +1678,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -792,7 +1687,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -801,7 +1695,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -815,7 +1708,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -829,7 +1721,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -839,7 +1730,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -848,7 +1738,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -862,7 +1751,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -876,7 +1764,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -890,7 +1777,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -904,7 +1790,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -918,7 +1803,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -932,7 +1816,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -946,7 +1829,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -960,7 +1842,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -974,7 +1855,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -988,7 +1868,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1002,7 +1881,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1016,7 +1894,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1030,7 +1907,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1044,7 +1920,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1058,7 +1933,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1072,7 +1946,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1086,7 +1959,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1095,12 +1967,24 @@
   </si>
   <si>
     <r>
+      <t>Zonalasporites ulughbeki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Ibrahim) Ibrahim 1933 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonales-sporites (Anulati-sporites) anulatus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1114,7 +1998,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1128,7 +2011,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1137,12 +2019,24 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Zonales-sporites brasserti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Stach &amp; Zerndt) Potonié &amp; Kremp 1956 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonales-sporites cicatricosus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1151,12 +2045,50 @@
   </si>
   <si>
     <r>
+      <t>Zonales-sporites conacies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Butterworth &amp; Spinner 1967</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zonales-sporites crassiletes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yahsiman 1959</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zonales-sporites dentatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Zerndt) Spinner 1965</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonales-sporites faunus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1165,12 +2097,37 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Zonales-sporites fusinatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spinner 1969</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zonales-sporites glaber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Potonié &amp; Kremp 1956a</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonales-sporites globiformis</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1179,12 +2136,24 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Zonales-sporites (Triletes) hazruiensis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yahsiman &amp; Ergönül 1959</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonales-sporites loricatus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1198,7 +2167,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1212,7 +2180,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1226,7 +2193,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1240,7 +2206,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1254,7 +2219,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1268,7 +2232,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1282,7 +2245,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1291,12 +2253,24 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Zonales-sporites rotatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Bartlett) Spinner 1965</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonales-sporites rotundus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1310,7 +2284,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1324,7 +2297,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1338,7 +2310,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1347,12 +2318,24 @@
   </si>
   <si>
     <r>
+      <t>Zonales-sporites superbus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Bartlett) Karczewska 1967</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonales-sporites tenuis</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1366,7 +2349,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1380,7 +2362,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1394,7 +2375,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1403,12 +2383,24 @@
   </si>
   <si>
     <r>
+      <t>Zonalessporites multoporosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Thiergart 1954 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonaletes abutiloides</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1422,7 +2414,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1436,7 +2427,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1450,7 +2440,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1464,7 +2453,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1478,7 +2466,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1492,7 +2479,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1506,7 +2492,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1520,7 +2505,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1529,12 +2513,24 @@
   </si>
   <si>
     <r>
+      <t>Zonaletes pumicosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Ibrahim) Luber, in Luber &amp; Waltz, 1938 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonaletes restrictus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1548,7 +2544,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1562,7 +2557,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1576,7 +2570,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1590,7 +2583,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1604,7 +2596,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1613,12 +2604,24 @@
   </si>
   <si>
     <r>
+      <t>Zonaletes hacquebardii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Staplin 1960 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonalosporites aureolus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1632,7 +2635,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1646,7 +2648,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1660,7 +2661,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1670,7 +2670,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1679,7 +2678,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1693,7 +2691,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1707,7 +2704,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1721,7 +2717,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1735,7 +2730,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1749,7 +2743,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1763,7 +2756,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1777,7 +2769,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1791,7 +2782,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1805,7 +2795,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1814,12 +2803,24 @@
   </si>
   <si>
     <r>
+      <t>Zonalosporites vittatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ibrahim 1933 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonalosporites winslowae</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1828,12 +2829,43 @@
   </si>
   <si>
     <r>
+      <t>Zonareticulatisporis goubinii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kar 1969 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zonareticulatisporis reticulata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Chandra, Kar &amp; Lacey 1977</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonocoronaspora maior</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1842,12 +2874,37 @@
   </si>
   <si>
     <r>
+      <t>Zonocoronaspora sphaerotriangula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Jachowicz 1967 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonocostites duquensis</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Dueñas 1979</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zonocostites duquensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1861,7 +2918,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1870,12 +2926,24 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Zonocostites minor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jaramillo &amp; Dilcher 2001</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonocostites mulleri</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1884,12 +2952,37 @@
   </si>
   <si>
     <r>
+      <t>Zonocostites ramonae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Germeraad, Hopping &amp; Muller 1968 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zonolagenicula hybrida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Dijkstra) Jansonius &amp; Hills 1979 (supplement to 1976) (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonomonoletes brachylobatus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1899,7 +2992,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1908,7 +3000,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1922,7 +3013,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1936,7 +3026,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1946,7 +3035,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1955,7 +3043,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1969,7 +3056,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1983,7 +3069,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1997,7 +3082,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2011,7 +3095,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2025,7 +3108,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2039,7 +3121,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2053,7 +3134,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2067,7 +3147,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2081,7 +3160,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2095,7 +3173,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2109,7 +3186,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2123,7 +3199,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2137,7 +3212,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2151,7 +3225,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2160,12 +3233,43 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zonorapollis annulatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Song, Li &amp; Zhong 1986</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zonorapollis brevicolpatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Li, Sung &amp; Li 1978 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonorapollis gasikulehuensis</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2179,7 +3283,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2193,7 +3296,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2207,7 +3309,6 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2221,7 +3322,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2235,7 +3335,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2249,7 +3348,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2263,7 +3361,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2277,7 +3374,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2291,7 +3387,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2305,7 +3400,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2319,7 +3413,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2333,7 +3426,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2347,7 +3439,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2361,7 +3452,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2371,7 +3461,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2380,7 +3469,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2394,7 +3482,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2408,7 +3495,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2422,7 +3508,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2436,7 +3521,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2450,7 +3534,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2464,7 +3547,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2478,7 +3560,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2492,7 +3573,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2506,7 +3586,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2520,7 +3599,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2534,7 +3612,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2548,7 +3625,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2562,7 +3638,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2571,12 +3646,24 @@
   </si>
   <si>
     <r>
+      <t>Zonostriatites verrucosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kar 1969 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonosulcites parvus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2585,12 +3672,24 @@
   </si>
   <si>
     <r>
+      <t>Zonosulcites scollardensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Srivastava 1969 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonotriletes adversipteralis</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2604,7 +3703,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2618,7 +3716,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2632,7 +3729,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2646,7 +3742,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2660,7 +3755,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2674,7 +3768,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2688,7 +3781,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2702,7 +3794,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2712,7 +3803,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2721,7 +3811,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2735,7 +3824,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2745,7 +3833,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2754,7 +3841,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2768,7 +3854,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2782,7 +3867,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2796,7 +3880,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2810,7 +3893,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2824,7 +3906,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2833,12 +3914,24 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Zonotriletes bulbiferus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maljavkina, in Luber &amp; Waltz, 1941</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonotriletes campylopterus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2852,7 +3945,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2866,7 +3958,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2880,7 +3971,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2894,7 +3984,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2908,7 +3997,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2922,7 +4010,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2936,7 +4023,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2950,7 +4036,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2964,7 +4049,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2978,7 +4062,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2992,7 +4075,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3006,7 +4088,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3020,7 +4101,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3034,7 +4114,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3048,7 +4127,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3062,7 +4140,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3076,7 +4153,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3090,7 +4166,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3104,7 +4179,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3118,7 +4192,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3132,7 +4205,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3146,7 +4218,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3160,7 +4231,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3174,7 +4244,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3188,7 +4257,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3202,7 +4270,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3216,7 +4283,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3230,7 +4296,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3239,12 +4304,24 @@
   </si>
   <si>
     <r>
+      <t>Zonotriletes ignoratus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Luber 1955</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonotriletes incertus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3258,7 +4335,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3272,7 +4348,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3286,7 +4361,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3300,7 +4374,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3309,12 +4382,24 @@
   </si>
   <si>
     <r>
+      <t>Zonotriletes irregularis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Luber 1941</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Zonotriletes lasiodermus</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3328,7 +4413,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3342,7 +4426,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3356,7 +4439,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3370,7 +4452,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3384,7 +4465,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3398,7 +4478,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3412,7 +4491,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3426,7 +4504,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3440,7 +4517,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3454,7 +4530,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3468,7 +4543,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3482,7 +4556,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3496,7 +4569,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3506,7 +4578,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3515,7 +4586,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3529,7 +4599,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3543,7 +4612,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3557,7 +4625,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3571,7 +4638,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3585,7 +4651,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3599,7 +4664,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3613,7 +4677,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3627,7 +4690,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3641,7 +4703,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3655,7 +4716,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3669,7 +4729,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3683,7 +4742,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3697,7 +4755,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3711,7 +4768,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3725,7 +4781,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3739,7 +4794,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3753,7 +4807,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3767,7 +4820,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3781,7 +4833,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3795,7 +4846,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3809,7 +4859,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3823,7 +4872,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3837,7 +4885,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3851,7 +4898,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3865,7 +4911,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3879,7 +4924,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3889,7 +4933,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3898,7 +4941,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3912,7 +4954,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3926,7 +4967,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3940,7 +4980,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3954,7 +4993,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3968,7 +5006,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3982,7 +5019,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3996,7 +5032,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4010,7 +5045,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4024,7 +5058,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4038,7 +5071,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4052,7 +5084,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4066,7 +5097,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4080,7 +5110,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4094,7 +5123,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4108,7 +5136,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4122,7 +5149,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4136,7 +5162,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4150,7 +5175,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4164,7 +5188,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4178,7 +5201,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4188,7 +5210,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4197,7 +5218,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4211,7 +5231,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4221,7 +5240,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4230,7 +5248,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4244,7 +5261,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4254,7 +5270,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4263,7 +5278,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4277,7 +5291,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4291,7 +5304,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4305,7 +5317,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4319,7 +5330,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4333,7 +5343,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4347,7 +5356,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4361,7 +5369,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4369,33 +5376,17 @@
     </r>
   </si>
   <si>
-    <t>ZAKLINSKAIEPOLLENITES</t>
-  </si>
-  <si>
-    <t>ZINJISPORA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zonacrinopollis anasulcatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cornet 1989 (T)</t>
-    </r>
-  </si>
-  <si>
-    <t>ZONALES-SPORITES</t>
-  </si>
-  <si>
-    <t>ZONOOIDIUM</t>
-  </si>
-  <si>
-    <t>ZONOSPHAERIDIUM</t>
+    <r>
+      <t>Zosterosphaera tripunctata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Schopf 1968 (T)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4404,7 +5395,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -4413,7 +5403,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ZHONGUANDINIUM </t>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zygodites medius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Rshanikova) Krutzsch &amp; Pacltová 1990 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ZYGODITES </t>
     </r>
     <r>
       <rPr>
@@ -4422,1359 +5431,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Zhu, He &amp; Jin, in He, Zhu &amp; Jin, 1989; p. 71-72.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zhongyuandinium decorosum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Zhu, He &amp; Jin, in He, Zhu &amp; Jin, 1989 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZAIREACOLPITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kar &amp; Bose 1976; p. 78.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zaireacolpites circulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kar &amp; Bose 1976 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zaklinskiana plicata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Bliakhova 1974 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZAKLINSKIANA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bliakhova 1974; p. 116, 125.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZEBRASPORITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Klaus 1960; p. 137.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zebrasporites kahleri</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Klaus 1960 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZEILLERISPORITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pant &amp; Srivastava 1964; p. 81.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zeillerisporites sahnii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Sitholey) Pant &amp; Srivastava 1964 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZELKOVAEPOLLENITES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Nagy 1969; p. 456.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zelkovaepollenites potoniei</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Nagy 1969 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZERNDTISPORITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bhardwaj 1956; p. 130.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zerndtisporites laxomarginalis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Zerndt) Bhardwaj 1956 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZHONGUAPOLLIS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yu, Zhang &amp; Zhou 1985; p. 532, 537.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zhonghuapollis projectus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Yu, Zhang &amp; Zhou 1985 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZIRCIPOLLENITES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kedves 1974; p. 27.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zircipollenites globosus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kedves 1974 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zlivisporis blanensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Pacltová 1961 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZOLLERELLA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scheuring 1980; p. 90.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zollerella tricolpata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Scheuring 1978 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONACRINOPOLLIS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cornet 1989; p. 64.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonalapollenites igniculus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Potonié </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Pflug, in Thomson &amp; Pflug, 1953 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONALAPLICITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Saad &amp; Ghazaly 1976</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZONALAPOLLENITES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Pflug, in Thomson &amp; Pflug, 1953; p. 66.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZONALASPORITES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ibrahim 1933; p. 37.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonalasporites ulughbeki</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Ibrahim) Ibrahim 1933 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zonales-sporites (Triletes) hazruiensis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yahsiman &amp; Ergönül 1959</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonales-sporites conacies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Butterworth &amp; Spinner 1967</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonales-sporites dentatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Zerndt) Spinner 1965</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zonales-sporites crassiletes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yahsiman 1959</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zonales-sporites fusinatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Spinner 1969</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonales-sporites glaber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Potonié &amp; Kremp 1956a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zonales-sporites rotatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Bartlett) Spinner 1965</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonales-sporites superbus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Bartlett) Karczewska 1967</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Several authors render the generic name as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zonalesporites</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, which is regarded as a variant spelling.&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONALESSPORITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Thiergart 1954; p. 549.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonalessporites multoporosus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Thiergart 1954 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zonales-sporites brasserti </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Stach &amp; Zerndt) Potonié &amp; Kremp 1956 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Jansonius &amp; Hills (1976; card 3270) discuss the confusing systematic issues regarding this genus, which appears to be a junior homonym of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zonales-sporites</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZONALETES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Luber &amp; Waltz 1938; p. 33.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonaletes pumicosus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Ibrahim) Luber, in Luber &amp; Waltz, 1938 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZONALETES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Staplin 1960; p. 6.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonaletes hacquebardii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Staplin 1960 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>non Zonaletes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Luber &amp; Waltz 1938</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">non Zonaletes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Staplin 1960</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZONALOSPORITES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ibrahim 1933; p. 40.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonalosporites vittatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ibrahim 1933 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONARETICULATISPORIS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kar 1969; p. 13.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonareticulatisporis goubinii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kar 1969 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONOCORONASPORA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Jachowicz 1967; p. 100.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonocoronaspora sphaerotriangula</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Jachowicz 1967 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONOCOSTITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Germeraad, Hopping &amp; Muller 1968; p. 332.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonocostites ramonae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Germeraad, Hopping &amp; Muller 1968 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonolagenicula hybrida</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Dijkstra) Jansonius &amp; Hills 1979 (supplement to 1976) (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONOLAGENICULA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Piérart 1978; p. 372.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONOMONOLETES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Naumova ex Bolkhovitina 1953; 58.</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;Although no type species has been designated, according to Jansonius &amp; Hills (card3278) the genus is valid.&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONORAPOLLIS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Li, Sung &amp; Li 1978; p. 30.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonorapollis brevicolpatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Li, Sung &amp; Li 1978 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONOSTRIATITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kar 1969; p. 92.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonostriatites verrucosus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kar 1969 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONOSULCITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Erdtman ex Srivastava 1969d; p. 980.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonosulcites scollardensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Srivastava 1969 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZONOTRILETES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Luber &amp; Waltz 1938; p. 13.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZOSTEROSPHAERA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Schopf 1968; p. 684.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zosterosphaera tripunctata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Schopf 1968 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZOSTEROSPORITES </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kosanke 1973' p. 10.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZVOLENYPOLLIS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Planderová 1966; p. 62, 86.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zvolenypollis rugulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Planderová 1966 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zlivisporis cenomanianus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Agasie) Braman 2001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zlivisporis simplex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Cookson &amp; Dettmann) Braman 2001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zonocostites minor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Jaramillo &amp; Dilcher 2001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ZLIVISPORIS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pacltová 1961; p. 40; see </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Triporoletes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Braman (2001) argued cogently that </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Zlivisporis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">be separated from </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Triporoletes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, on the basis of the morphology of the genotypes. Numerous species require re-evaluation if this view is appropriate.&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zonotriletes bulbiferus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Maljavkina, in Luber &amp; Waltz, 1941</t>
-    </r>
-  </si>
-  <si>
-    <t>Z GENERA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zonorapollis annulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Song, Li &amp; Zhong 1986</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zlivisporis bireticulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Liu 1981</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zlivisporis pliocaenicus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch 1967</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zonocostites equatorialis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Silva-Caminha, Jaramillo &amp; Absy 2010</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonotriletes ignoratus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Luber 1955</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonotriletes irregularis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Luber 1941</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zlivisporis unioreticulatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Zhang &amp; Zhan 1991</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zlivisporis triocularis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Venkatachala &amp; Sharma 1974</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zlivisporis magnus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Rákosi 1973</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zlivisporis palaeogenicus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Krutzsch &amp; Vanhoorne 1977</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zlivisporis attenuatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Zhang &amp; Zhan 1991</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zonocostites duquensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Dueñas 1979</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zonareticulatisporis reticulata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Chandra, Kar &amp; Lacey 1977</t>
+      <t>Krutzsch &amp; Pacltová 1990</t>
     </r>
   </si>
 </sst>
@@ -5782,7 +5439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5791,40 +5448,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -5852,12 +5476,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -5900,6 +5518,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5921,26 +5550,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6249,1985 +5874,1995 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E386"/>
+  <dimension ref="B1:E388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="F392" sqref="F392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="3" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="8"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="3" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="6"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E28" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E30" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E31" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E33" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E34" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E35" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E36" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E37" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E38" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E40" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E41" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E42" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E45" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E48" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E50" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E51" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E52" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E53" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E54" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E55" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E56" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E57" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E58" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E59" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E60" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E61" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E62" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E63" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E64" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E65" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E66" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E67" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E68" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E69" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E71" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E73" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E75" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E76" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E78" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E79" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E80" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E81" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E82" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E83" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E84" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E85" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E86" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E87" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E88" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E89" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E90" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E91" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E92" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E93" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E94" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E95" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E96" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E97" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E98" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E99" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E100" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E101" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E102" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E104" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E105" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E106" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E107" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E108" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E109" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E110" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E111" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="4:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E114" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E115" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E116" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E117" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E118" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E119" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E120" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E121" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E122" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E123" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E124" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E125" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E126" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E127" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E128" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E129" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E130" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E131" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E132" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E133" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E134" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E135" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E136" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E137" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E138" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E139" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E140" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E141" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E142" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E143" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E144" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="8"/>
+    </row>
+    <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E147" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C149" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E150" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E151" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E152" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E153" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E154" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E155" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E156" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E157" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E158" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E159" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E160" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E161" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E162" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E163" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E164" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E165" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C167" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E168" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E170" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E171" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E172" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E173" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E174" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E175" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E176" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E177" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E178" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E179" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E180" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E181" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E182" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E183" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E184" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E186" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E187" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B188" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E189" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E190" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E192" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E193" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E194" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E195" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E196" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E197" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E198" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E200" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D202" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E203" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E204" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E205" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E206" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E207" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E208" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E209" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E210" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E211" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E212" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" s="8"/>
+    </row>
+    <row r="214" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E214" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E215" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E216" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E217" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E218" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E219" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E220" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E221" s="8"/>
+    </row>
+    <row r="222" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E222" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E223" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E224" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E225" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" s="8"/>
+    </row>
+    <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E227" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E228" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E229" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E230" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E231" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E232" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E233" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E234" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E235" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E236" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E237" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E238" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E239" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E240" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E241" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E242" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E243" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E244" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E245" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E246" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E247" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E248" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E249" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E250" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E251" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E252" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E253" s="8"/>
+    </row>
+    <row r="254" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E254" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B255" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E255" s="8"/>
+    </row>
+    <row r="256" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E256" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E257" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E258" s="8"/>
+    </row>
+    <row r="259" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E259" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E260" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E261" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E262" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E263" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E264" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E265" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E266" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E267" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E268" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E269" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E270" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E271" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E272" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E273" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E274" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E275" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E276" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E277" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E278" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E279" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E280" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E281" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E282" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E283" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E284" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E285" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E286" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E287" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E288" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E289" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E290" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E291" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E292" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E293" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E294" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E295" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E296" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E297" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E298" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E299" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E300" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E301" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E302" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E303" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E304" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E305" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E306" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E307" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E308" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E309" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E310" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E311" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E312" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E313" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E314" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E315" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E316" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E317" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E318" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="319" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E319" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E320" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E321" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E322" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E323" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E324" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E325" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E326" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="327" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E327" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E328" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="329" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E329" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="330" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E330" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="331" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E331" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="332" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E332" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="333" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E333" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E334" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="335" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E335" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="336" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E336" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E337" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E338" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="339" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E339" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="340" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E340" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="341" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E341" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E342" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E343" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E344" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="345" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E345" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="346" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E346" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="347" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E347" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E348" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E349" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E350" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E351" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E352" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E353" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="354" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E354" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E355" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="356" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E356" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E357" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="358" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E358" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="359" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E359" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E360" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E361" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E362" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E363" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="364" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E364" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E365" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E366" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E367" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="368" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E368" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E369" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E26" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E40" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E42" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E43" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E45" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D47" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E48" s="2" t="s">
+    <row r="370" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E370" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E371" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E372" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E373" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E374" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E375" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E376" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E377" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E378" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E379" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E380" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E49" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E50" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E51" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E52" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E53" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E54" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E55" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E56" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E57" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E58" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E60" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E61" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E62" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E63" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E64" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E65" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E66" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E67" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E68" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E69" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B70" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E71" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E75" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E76" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E78" s="2" t="s">
+    <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B381" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E79" s="2" t="s">
+      <c r="E381" s="8"/>
+    </row>
+    <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E382" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B383" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E80" s="2" t="s">
+      <c r="E383" s="8"/>
+    </row>
+    <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E384" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B385" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E81" s="2" t="s">
+    <row r="386" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E386" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E83" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E84" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E85" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E86" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E87" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E88" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E89" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E90" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E91" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E92" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E93" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E94" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E95" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E96" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E97" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E98" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E99" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E100" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E101" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E102" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B103" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E104" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E105" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E106" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E107" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E108" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E109" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E110" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E111" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B112" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="4:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D113" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E114" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E115" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E116" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E117" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E118" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E119" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E120" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E121" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E122" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E123" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E124" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E125" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E126" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E127" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E128" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E129" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E130" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E131" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E132" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E133" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E134" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E135" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="136" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E136" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E137" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="138" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E138" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E139" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="140" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E140" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="141" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E141" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="142" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E142" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E143" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E144" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B145" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D146" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E147" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B148" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C149" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E150" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E151" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E152" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E153" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E154" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E155" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E156" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E157" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E158" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E159" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E160" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E161" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E162" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E163" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E164" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E165" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B166" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C167" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E168" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B169" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E170" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E171" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E172" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E173" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E174" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E175" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E176" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E177" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E178" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E179" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E180" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E181" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E182" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E183" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E184" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B185" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E186" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E187" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B188" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E189" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E190" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B191" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E192" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E193" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E194" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E195" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E196" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E197" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E198" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B199" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E200" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B201" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E201" s="1"/>
-    </row>
-    <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D202" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="E202" s="1"/>
-    </row>
-    <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E203" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E204" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E205" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E206" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E207" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E208" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E209" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E210" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E211" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E212" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B213" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E214" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E215" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E216" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E217" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E218" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E219" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E220" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B221" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E222" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E223" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E224" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E225" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B226" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E226" s="1"/>
-    </row>
-    <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E227" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E228" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E229" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E230" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E231" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E232" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="233" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E233" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E234" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E235" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E236" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E237" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E238" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E239" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E240" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E241" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E242" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="243" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E243" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E244" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E245" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E246" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E247" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E248" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E249" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E250" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E251" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E252" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="253" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B253" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E254" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B255" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E256" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E257" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B258" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E259" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E260" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E261" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E262" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E263" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E264" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E265" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E266" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E267" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E268" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E269" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E270" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E271" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E272" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="273" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E273" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="274" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E274" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="275" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E275" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="276" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E276" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="277" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E277" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="278" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E278" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="279" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E279" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="280" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E280" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="281" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E281" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="282" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E282" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="283" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E283" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="284" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E284" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="285" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E285" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="286" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E286" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="287" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E287" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="288" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E288" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="289" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E289" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="290" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E290" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="291" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E291" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="292" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E292" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="293" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E293" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="294" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E294" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="295" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E295" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="296" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E296" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="297" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E297" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="298" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E298" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="299" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E299" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="300" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E300" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="301" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E301" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="302" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E302" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="303" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E303" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="304" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E304" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="305" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E305" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="306" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E306" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="307" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E307" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="308" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E308" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="309" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E309" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="310" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E310" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="311" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E311" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="312" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E312" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="313" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E313" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="314" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E314" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="315" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E315" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="316" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E316" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="317" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E317" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="318" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E318" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="319" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E319" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="320" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E320" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="321" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E321" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="322" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E322" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="323" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E323" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="324" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E324" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="325" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E325" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="326" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E326" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="327" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E327" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="328" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E328" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="329" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E329" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="330" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E330" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="331" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E331" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="332" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E332" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="333" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E333" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="334" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E334" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="335" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E335" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="336" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E336" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="337" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E337" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="338" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E338" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="339" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E339" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="340" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E340" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="341" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E341" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="342" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E342" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="343" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E343" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E344" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="345" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E345" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="346" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E346" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="347" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E347" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E348" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E349" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="350" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E350" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E351" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E352" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="353" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E353" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="354" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E354" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="355" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E355" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="356" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E356" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="357" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E357" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="358" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E358" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="359" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E359" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="360" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E360" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="361" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E361" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="362" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E362" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="363" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E363" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="364" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E364" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="365" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E365" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="366" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E366" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="367" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E367" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="368" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E368" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="369" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E369" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="370" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E370" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="371" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E371" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="372" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E372" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="373" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E373" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="374" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E374" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="375" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E375" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E376" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E377" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="378" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E378" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E379" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E380" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B381" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E381" s="2"/>
-    </row>
-    <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E382" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B383" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E383" s="2"/>
-    </row>
-    <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E384" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B385" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="386" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E386" s="10" t="s">
-        <v>363</v>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B387" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E388" s="6" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/data/taxon genera files/Z genera reduced.xlsx
+++ b/data/taxon genera files/Z genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="388">
   <si>
     <t>ZAKLINSKAIEPOLLENITES</t>
   </si>
@@ -5432,6 +5432,40 @@
         <family val="2"/>
       </rPr>
       <t>Krutzsch &amp; Pacltová 1990</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zlivisporis spinosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Kar &amp; Bose) Anderson 1977</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lukugasporites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kar &amp; Bose 1967; p. 23.</t>
     </r>
   </si>
 </sst>
@@ -5874,10 +5908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E388"/>
+  <dimension ref="B1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="F392" sqref="F392"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6127,1741 +6161,1752 @@
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E49" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E49" s="6" t="s">
+    <row r="50" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E50" s="6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E50" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="51" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E51" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E52" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E53" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E54" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E55" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E56" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E57" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E58" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E59" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E60" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E61" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E61" s="6" t="s">
+    <row r="62" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E62" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E62" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="63" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E63" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E64" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E65" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E66" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E67" s="8" t="s">
-        <v>96</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E68" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E69" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="71" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E71" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E73" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E75" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E75" s="9" t="s">
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E77" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E76" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E78" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E79" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E80" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E81" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E82" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E83" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E84" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E85" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E86" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E87" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E88" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E89" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E90" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E91" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E92" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E93" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E94" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E95" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E96" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E97" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E98" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E99" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E100" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E101" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E102" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E103" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E104" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
+    <row r="105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E104" s="9" t="s">
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E106" s="9" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E105" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E106" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E107" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E108" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E109" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E110" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E111" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E112" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E113" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+    <row r="114" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="4:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D113" s="3" t="s">
+      <c r="E114" s="8"/>
+    </row>
+    <row r="115" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D115" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="8"/>
-    </row>
-    <row r="114" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E114" s="8" t="s">
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E116" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="115" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E115" s="8" t="s">
+    <row r="117" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E117" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E116" s="8" t="s">
+    <row r="118" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E118" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E117" s="8" t="s">
+    <row r="119" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E119" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E118" s="8" t="s">
+    <row r="120" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E120" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E119" s="8" t="s">
+    <row r="121" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E121" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E120" s="8" t="s">
+    <row r="122" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E122" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E121" s="8" t="s">
+    <row r="123" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E123" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E122" s="8" t="s">
+    <row r="124" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E124" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E123" s="8" t="s">
+    <row r="125" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E125" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E124" s="8" t="s">
+    <row r="126" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E126" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E125" s="8" t="s">
+    <row r="127" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E127" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E126" s="8" t="s">
+    <row r="128" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E128" s="8" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E127" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E128" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="129" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E129" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E130" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E131" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E132" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E133" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E134" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E135" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E136" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E137" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E138" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E139" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E140" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E141" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E142" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E143" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E144" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E145" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E146" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B145" s="2" t="s">
+    <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E145" s="8"/>
-    </row>
-    <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D146" s="3" t="s">
+      <c r="E147" s="8"/>
+    </row>
+    <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D148" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E146" s="8"/>
-    </row>
-    <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E147" s="8" t="s">
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E149" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B148" s="2" t="s">
+    <row r="150" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="8"/>
-    </row>
-    <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C149" s="5" t="s">
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C151" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E149" s="8"/>
-    </row>
-    <row r="150" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E150" s="9" t="s">
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E152" s="9" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E151" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E152" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E153" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E154" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E155" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E156" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E157" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E158" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E159" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E160" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E161" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E162" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E163" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E164" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E165" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E166" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E167" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B166" s="2" t="s">
+    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C167" s="4" t="s">
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C169" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E167" s="8"/>
-    </row>
-    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E168" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E169" s="8"/>
     </row>
     <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E170" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E171" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="B171" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="8"/>
     </row>
     <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E172" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E173" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E174" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E175" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E176" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E177" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E178" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E179" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E180" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E181" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E182" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E183" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E184" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B185" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E185" s="8"/>
+      <c r="E185" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E186" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E188" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E187" s="6" t="s">
+    <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E189" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B188" s="2" t="s">
+    <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E188" s="8"/>
-    </row>
-    <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E189" s="8" t="s">
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E191" s="8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E190" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B191" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E191" s="8"/>
     </row>
     <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E192" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E194" s="8" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E193" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E194" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E195" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E196" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E196" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E197" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E198" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B199" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E199" s="8"/>
+      <c r="E199" s="8" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E200" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E202" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E201" s="8"/>
-    </row>
-    <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D202" s="3" t="s">
+      <c r="E203" s="8"/>
+    </row>
+    <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D204" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E202" s="8"/>
-    </row>
-    <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E203" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E204" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="E204" s="8"/>
     </row>
     <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E205" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E206" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E207" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E208" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E209" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E210" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="211" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E211" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E212" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B213" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" s="8"/>
+      <c r="E213" s="8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="214" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E214" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E215" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="B215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" s="8"/>
     </row>
     <row r="216" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E216" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="217" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E217" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E218" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="219" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E219" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E220" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E221" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E222" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B221" s="2" t="s">
+    <row r="223" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E221" s="8"/>
-    </row>
-    <row r="222" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E222" s="6" t="s">
+      <c r="E223" s="8"/>
+    </row>
+    <row r="224" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E224" s="6" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E223" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E224" s="8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E225" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E226" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E227" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B226" s="2" t="s">
+    <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E226" s="8"/>
-    </row>
-    <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E227" s="9" t="s">
+      <c r="E228" s="8"/>
+    </row>
+    <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E229" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E228" s="9" t="s">
+    <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E230" s="9" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E229" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E230" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E231" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="232" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E232" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E233" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E234" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E235" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E236" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E237" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E238" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E239" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E240" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E241" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E242" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="243" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E243" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="244" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E244" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E245" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="246" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E246" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="247" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E247" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E248" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="249" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E249" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E250" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="251" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E251" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E252" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="253" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B253" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E253" s="8"/>
+      <c r="E253" s="8" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="254" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E254" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="255" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E255" s="8"/>
     </row>
     <row r="256" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E256" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E257" s="8"/>
+    </row>
+    <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E258" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E257" s="8" t="s">
+    <row r="259" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E259" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B258" s="2" t="s">
+    <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E258" s="8"/>
-    </row>
-    <row r="259" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E259" s="9" t="s">
+      <c r="E260" s="8"/>
+    </row>
+    <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E261" s="9" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E260" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E261" s="8" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="262" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E262" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E263" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E264" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E265" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E266" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E267" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E268" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E269" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E270" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E271" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E272" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E273" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E274" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E275" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E276" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E277" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E278" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E279" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E280" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E281" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E282" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E283" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E284" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E285" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E286" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E287" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E288" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E289" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E290" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E291" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E292" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E293" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E294" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="295" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E295" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="296" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E296" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E297" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="298" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E298" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="299" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E299" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="300" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E300" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="301" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E301" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E302" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="303" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E303" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E304" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="305" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E305" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E306" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E307" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="308" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E308" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="309" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E309" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="310" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E310" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="311" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E311" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E312" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="313" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E313" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E314" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="315" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E315" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E316" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E317" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E318" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E319" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E320" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E321" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E322" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E323" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="324" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E324" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E325" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E326" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E327" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E328" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E329" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E330" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E331" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E332" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E333" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E334" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E335" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E336" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E337" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E338" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E339" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E340" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E341" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E342" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E343" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E344" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E345" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="346" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E346" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E347" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E348" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E349" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="350" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E350" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E351" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E352" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E353" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="354" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E354" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="355" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E355" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="356" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E356" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E357" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E358" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E359" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E360" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E361" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E362" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="363" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E363" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E364" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="365" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E365" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E366" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="367" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E367" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E368" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E369" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E370" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E371" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="372" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E372" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E373" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="374" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E374" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E375" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E376" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E377" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E378" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E379" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E380" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B381" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E381" s="8"/>
+      <c r="E381" s="8" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E382" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E383" s="8"/>
     </row>
     <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E384" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B385" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E385" s="8"/>
+    </row>
+    <row r="386" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E386" s="8" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B385" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="386" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E386" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" s="2" t="s">
-        <v>385</v>
+        <v>39</v>
       </c>
     </row>
     <row r="388" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E388" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B389" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E390" s="6" t="s">
         <v>384</v>
       </c>
     </row>
